--- a/biology/Botanique/Robert_Zander/Robert_Zander.xlsx
+++ b/biology/Botanique/Robert_Zander/Robert_Zander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Zander, né le 26 juillet 1892 à Magdebourg et mort le 8 mai 1969 à Berlin, est un botaniste allemand, célèbre pour ses publications destinées au grand public cultivé.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Zander poursuit ses études de botanique à l'université de Halle. En 1926, il reçoit de la part de l'union des horticulteurs allemand la responsabilité de réviser et systématiser la nomenclature des plantes de culture et de s'occuper de la maison d'édition de l'union. Cette dernière fusionne en 1934 avec les éditions de la Société d'horticulture allemande. C'est la plus grande librairie-édition du continent avec quarante mille volumes et la quatrième du monde. Il la dirige de 1934 à 1936, tout en écrivant pour différents périodiques botaniques et d'horticulture.
 Pendant la Seconde Guerre mondiale, la maison d'édition se heurte à des heures extrêmement difficiles. En 1953, il est nommé président de la Société d'horticulture allemande tout en rédigeant toujours de nombreuses publications. Entre 1957 et 1959, il travaille pour le ministère de l'agriculture à une évaluation des publications périodiques. Il rédige vingt-cinq mille fiches jusqu'en 1960, concernant les périodiques allemands ayant publié sur des sujets traitant de la botanique avant 1900 et se consacre ainsi à la taxonomie.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beitrag zur Kenntnis der tertiären Hölzer des Geiseltals. In: Braunkohle. Jahrg. XXII, Nr. 2, Januar 1923 (thèse de doctorat imprimée à Heft du 2 au 14 avril 1923).
 Führer durch den Botanischen Garten der Universität Halle/Saale. 1925.
@@ -590,12 +606,14 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(Cactaceae) Borzicactus zanderi Backeb.[1]
-(Caprifoliaceae) Abelia zanderi Rehder[2]
-(Caprifoliaceae) Zabelia zanderi (Graebn.)  Makino[3]
-(Tropaeolaceae) Tropaeolum × zanderi A.Dietr.[4]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Cactaceae) Borzicactus zanderi Backeb.
+(Caprifoliaceae) Abelia zanderi Rehder
+(Caprifoliaceae) Zabelia zanderi (Graebn.)  Makino
+(Tropaeolaceae) Tropaeolum × zanderi A.Dietr.</t>
         </is>
       </c>
     </row>
